--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_2_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_2_31.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55380.69060583726</v>
+        <v>3879504.071607753</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55380.69060583726</v>
+        <v>3879504.071607753</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494365305.884841</v>
+        <v>57188727.42659743</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13250.89670633727</v>
+        <v>1261868.128012885</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26305.45820166781</v>
+        <v>2489760.742337164</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39360.01969699835</v>
+        <v>3717653.356661445</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55014.39428732576</v>
+        <v>4741863.708255416</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69444.10928538624</v>
+        <v>5894901.682672407</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83873.82428344674</v>
+        <v>7047939.657089395</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98303.53928150723</v>
+        <v>8200977.631506382</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>112733.2542795679</v>
+        <v>9354015.605923356</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128387.6288698954</v>
+        <v>10378225.9575173</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142817.343867956</v>
+        <v>11531263.93193427</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157233.4209415387</v>
+        <v>12685383.07325245</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171649.4980151214</v>
+        <v>13839502.21457064</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186065.5750887041</v>
+        <v>14993621.35588883</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200495.2900867647</v>
+        <v>16146659.33030582</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>217957.2313730924</v>
+        <v>16939358.14062577</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>133.0000000000041</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
